--- a/data/courseTemp.xlsx
+++ b/data/courseTemp.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -397,19 +397,19 @@
         <v>category</v>
       </c>
       <c r="F1" t="str">
+        <v>hours</v>
+      </c>
+      <c r="G1" t="str">
+        <v>section</v>
+      </c>
+      <c r="H1" t="str">
+        <v>faculty</v>
+      </c>
+      <c r="I1" t="str">
+        <v>semester</v>
+      </c>
+      <c r="J1" t="str">
         <v>topic</v>
-      </c>
-      <c r="G1" t="str">
-        <v>hours</v>
-      </c>
-      <c r="H1" t="str">
-        <v>section</v>
-      </c>
-      <c r="I1" t="str">
-        <v>faculty</v>
-      </c>
-      <c r="J1" t="str">
-        <v>semester</v>
       </c>
     </row>
     <row r="2">
@@ -417,31 +417,31 @@
         <v>COMP</v>
       </c>
       <c r="B2">
-        <v>430</v>
+        <v>585</v>
       </c>
       <c r="C2">
-        <v>4920</v>
+        <v>25478</v>
       </c>
       <c r="D2" t="str">
-        <v>Asdfsdf</v>
+        <v>Serious Games</v>
       </c>
       <c r="E2" t="str">
         <v>NA</v>
       </c>
-      <c r="F2" t="str">
-        <v>NA</v>
-      </c>
-      <c r="G2">
-        <v>4</v>
+      <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="G2" t="str">
+        <v>001</v>
       </c>
       <c r="H2" t="str">
-        <v>1</v>
+        <v>Pozefsky, Diane</v>
       </c>
       <c r="I2" t="str">
-        <v>Phelps, Michael</v>
+        <v>S2 2019</v>
       </c>
       <c r="J2" t="str">
-        <v>S1 2002</v>
+        <v>NA</v>
       </c>
     </row>
     <row r="3">
@@ -449,31 +449,31 @@
         <v>COMP</v>
       </c>
       <c r="B3">
-        <v>540</v>
+        <v>431</v>
       </c>
       <c r="C3">
-        <v>132</v>
+        <v>2162</v>
       </c>
       <c r="D3" t="str">
-        <v>Zasl;dkf</v>
+        <v>Internet Services &amp; Protocols</v>
       </c>
       <c r="E3" t="str">
         <v>NA</v>
       </c>
-      <c r="F3" t="str">
-        <v>NA</v>
-      </c>
-      <c r="G3">
-        <v>3</v>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3" t="str">
+        <v>001</v>
       </c>
       <c r="H3" t="str">
-        <v>3</v>
+        <v>Kaur, Jasleen</v>
       </c>
       <c r="I3" t="str">
-        <v>Phelps, Michael</v>
+        <v>S2 2019</v>
       </c>
       <c r="J3" t="str">
-        <v>SP 2007</v>
+        <v>NA</v>
       </c>
     </row>
     <row r="4">
@@ -481,63 +481,63 @@
         <v>COMP</v>
       </c>
       <c r="B4">
-        <v>540</v>
+        <v>455</v>
       </c>
       <c r="C4">
-        <v>3902</v>
+        <v>2160</v>
       </c>
       <c r="D4" t="str">
-        <v>Flutterby</v>
+        <v>Models of Languages &amp; Computation</v>
       </c>
       <c r="E4" t="str">
         <v>NA</v>
       </c>
-      <c r="F4" t="str">
-        <v>NA</v>
-      </c>
-      <c r="G4">
-        <v>3</v>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4" t="str">
+        <v>001</v>
       </c>
       <c r="H4" t="str">
-        <v>3</v>
+        <v>Plaisted, David</v>
       </c>
       <c r="I4" t="str">
-        <v>Phelps, Michael</v>
+        <v>S2 2019</v>
       </c>
       <c r="J4" t="str">
-        <v>SP 2015</v>
+        <v>NA</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>comp</v>
+        <v>COMP</v>
       </c>
       <c r="B5">
-        <v>143</v>
+        <v>520</v>
       </c>
       <c r="C5">
-        <v>4242</v>
+        <v>12777</v>
       </c>
       <c r="D5" t="str">
-        <v>asdf</v>
+        <v>Compilers</v>
       </c>
       <c r="E5" t="str">
         <v>NA</v>
       </c>
-      <c r="F5" t="str">
-        <v>NA</v>
-      </c>
-      <c r="G5">
-        <v>3</v>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5" t="str">
+        <v>001</v>
       </c>
       <c r="H5" t="str">
-        <v>1</v>
+        <v>Prins, Jan</v>
       </c>
       <c r="I5" t="str">
-        <v>Phelps, Michael</v>
+        <v>S2 2019</v>
       </c>
       <c r="J5" t="str">
-        <v>FA 2019</v>
+        <v>NA</v>
       </c>
     </row>
     <row r="6">
@@ -545,31 +545,31 @@
         <v>COMP</v>
       </c>
       <c r="B6">
-        <v>160</v>
+        <v>524</v>
       </c>
       <c r="C6">
-        <v>23</v>
+        <v>7310</v>
       </c>
       <c r="D6" t="str">
-        <v>asdf</v>
+        <v>Program Language Concepts</v>
       </c>
       <c r="E6" t="str">
         <v>NA</v>
       </c>
-      <c r="F6" t="str">
-        <v>NA</v>
-      </c>
-      <c r="G6">
-        <v>3</v>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6" t="str">
+        <v>001</v>
       </c>
       <c r="H6" t="str">
-        <v>1</v>
+        <v>Pozefsky, Diane</v>
       </c>
       <c r="I6" t="str">
-        <v>Phelps, Michael</v>
+        <v>S2 2019</v>
       </c>
       <c r="J6" t="str">
-        <v>FA 2019</v>
+        <v>NA</v>
       </c>
     </row>
     <row r="7">
@@ -577,31 +577,31 @@
         <v>COMP</v>
       </c>
       <c r="B7">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="C7">
-        <v>5322</v>
+        <v>5675</v>
       </c>
       <c r="D7" t="str">
-        <v>Algorithms</v>
+        <v>Distributed Systems</v>
       </c>
       <c r="E7" t="str">
         <v>NA</v>
       </c>
-      <c r="F7" t="str">
-        <v>NA</v>
-      </c>
-      <c r="G7">
-        <v>3</v>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7" t="str">
+        <v>001</v>
       </c>
       <c r="H7" t="str">
-        <v>4</v>
+        <v>Dewan, Prasun</v>
       </c>
       <c r="I7" t="str">
-        <v>Phelps, Michael</v>
+        <v>S2 2019</v>
       </c>
       <c r="J7" t="str">
-        <v>FA 2020</v>
+        <v>NA</v>
       </c>
     </row>
     <row r="8">
@@ -609,36 +609,612 @@
         <v>COMP</v>
       </c>
       <c r="B8">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="C8">
-        <v>942</v>
+        <v>4323</v>
       </c>
       <c r="D8" t="str">
-        <v>Hay now</v>
+        <v>Intro to Security</v>
       </c>
       <c r="E8" t="str">
         <v>NA</v>
       </c>
-      <c r="F8" t="str">
-        <v>NA</v>
-      </c>
-      <c r="G8">
-        <v>3</v>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8" t="str">
+        <v>001</v>
       </c>
       <c r="H8" t="str">
-        <v>3</v>
+        <v>Reiter, Michael</v>
       </c>
       <c r="I8" t="str">
-        <v>Phelps, Michael</v>
+        <v>S2 2019</v>
       </c>
       <c r="J8" t="str">
-        <v>FA 2021</v>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>COMP</v>
+      </c>
+      <c r="B9">
+        <v>541</v>
+      </c>
+      <c r="C9">
+        <v>3771</v>
+      </c>
+      <c r="D9" t="str">
+        <v>Digital Logic &amp; Computer Design</v>
+      </c>
+      <c r="E9" t="str">
+        <v>NA</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9" t="str">
+        <v>001</v>
+      </c>
+      <c r="H9" t="str">
+        <v>Singh, Montek</v>
+      </c>
+      <c r="I9" t="str">
+        <v>S2 2019</v>
+      </c>
+      <c r="J9" t="str">
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>COMP</v>
+      </c>
+      <c r="B10">
+        <v>550</v>
+      </c>
+      <c r="C10">
+        <v>2176</v>
+      </c>
+      <c r="D10" t="str">
+        <v>Algorithms &amp; Analysis</v>
+      </c>
+      <c r="E10" t="str">
+        <v>NA</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+      <c r="G10" t="str">
+        <v>002</v>
+      </c>
+      <c r="H10" t="str">
+        <v>Frahm, Jan-Michael</v>
+      </c>
+      <c r="I10" t="str">
+        <v>S2 2019</v>
+      </c>
+      <c r="J10" t="str">
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>COMP</v>
+      </c>
+      <c r="B11">
+        <v>555</v>
+      </c>
+      <c r="C11">
+        <v>4532</v>
+      </c>
+      <c r="D11" t="str">
+        <v>Bioalgorithms</v>
+      </c>
+      <c r="E11" t="str">
+        <v>NA</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
+      <c r="G11" t="str">
+        <v>001</v>
+      </c>
+      <c r="H11" t="str">
+        <v>McMillan, Leonard</v>
+      </c>
+      <c r="I11" t="str">
+        <v>S2 2019</v>
+      </c>
+      <c r="J11" t="str">
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>COMP</v>
+      </c>
+      <c r="B12">
+        <v>562</v>
+      </c>
+      <c r="C12">
+        <v>14565</v>
+      </c>
+      <c r="D12" t="str">
+        <v>Introduction to Machine Learning</v>
+      </c>
+      <c r="E12" t="str">
+        <v>NA</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+      <c r="G12" t="str">
+        <v>001</v>
+      </c>
+      <c r="H12" t="str">
+        <v>Silva, Jorge</v>
+      </c>
+      <c r="I12" t="str">
+        <v>S2 2019</v>
+      </c>
+      <c r="J12" t="str">
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>COMP</v>
+      </c>
+      <c r="B13">
+        <v>585</v>
+      </c>
+      <c r="C13">
+        <v>5604</v>
+      </c>
+      <c r="D13" t="str">
+        <v>Serious Games Honors</v>
+      </c>
+      <c r="E13" t="str">
+        <v>NA</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
+      <c r="G13" t="str">
+        <v>001</v>
+      </c>
+      <c r="H13" t="str">
+        <v>Pozefsky, Diane</v>
+      </c>
+      <c r="I13" t="str">
+        <v>S2 2019</v>
+      </c>
+      <c r="J13" t="str">
+        <v>Honors</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>COMP</v>
+      </c>
+      <c r="B14">
+        <v>433</v>
+      </c>
+      <c r="C14">
+        <v>12776</v>
+      </c>
+      <c r="D14" t="str">
+        <v>Mobile Computing Systems</v>
+      </c>
+      <c r="E14" t="str">
+        <v>NA</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+      <c r="G14" t="str">
+        <v>001</v>
+      </c>
+      <c r="H14" t="str">
+        <v>Nirjon, Shahriar</v>
+      </c>
+      <c r="I14" t="str">
+        <v>S2 2019</v>
+      </c>
+      <c r="J14" t="str">
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>COMP</v>
+      </c>
+      <c r="B15">
+        <v>590</v>
+      </c>
+      <c r="C15">
+        <v>6152</v>
+      </c>
+      <c r="D15" t="str">
+        <v>Special Topics</v>
+      </c>
+      <c r="E15" t="str">
+        <v>NA</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15" t="str">
+        <v>140</v>
+      </c>
+      <c r="H15" t="str">
+        <v>Jordan, Kris</v>
+      </c>
+      <c r="I15" t="str">
+        <v>S2 2019</v>
+      </c>
+      <c r="J15" t="str">
+        <v>Systems programming pilot</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>COMP</v>
+      </c>
+      <c r="B16">
+        <v>590</v>
+      </c>
+      <c r="C16">
+        <v>14592</v>
+      </c>
+      <c r="D16" t="str">
+        <v>Special Topics</v>
+      </c>
+      <c r="E16" t="str">
+        <v>Theory</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+      <c r="G16" t="str">
+        <v>042</v>
+      </c>
+      <c r="H16" t="str">
+        <v>Smith, Don</v>
+      </c>
+      <c r="I16" t="str">
+        <v>S2 2019</v>
+      </c>
+      <c r="J16" t="str">
+        <v>Big Data wi Hadoop, MapReduce, &amp; Spark</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>COMP</v>
+      </c>
+      <c r="B17">
+        <v>590</v>
+      </c>
+      <c r="C17">
+        <v>14563</v>
+      </c>
+      <c r="D17" t="str">
+        <v>Special Topics</v>
+      </c>
+      <c r="E17" t="str">
+        <v>NA</v>
+      </c>
+      <c r="F17">
+        <v>3</v>
+      </c>
+      <c r="G17" t="str">
+        <v>080</v>
+      </c>
+      <c r="H17" t="str">
+        <v>Mayer-Patel, Ketan</v>
+      </c>
+      <c r="I17" t="str">
+        <v>S2 2019</v>
+      </c>
+      <c r="J17" t="str">
+        <v>Data Compression</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>COMP</v>
+      </c>
+      <c r="B18">
+        <v>651</v>
+      </c>
+      <c r="C18">
+        <v>12792</v>
+      </c>
+      <c r="D18" t="str">
+        <v>Computational Geometry</v>
+      </c>
+      <c r="E18" t="str">
+        <v>NA</v>
+      </c>
+      <c r="F18">
+        <v>3</v>
+      </c>
+      <c r="G18" t="str">
+        <v>001</v>
+      </c>
+      <c r="H18" t="str">
+        <v>Snoeyink, Jack</v>
+      </c>
+      <c r="I18" t="str">
+        <v>S2 2019</v>
+      </c>
+      <c r="J18" t="str">
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>COMP</v>
+      </c>
+      <c r="B19">
+        <v>735</v>
+      </c>
+      <c r="C19">
+        <v>12489</v>
+      </c>
+      <c r="D19" t="str">
+        <v>Distributed and Concurrent Algorithms</v>
+      </c>
+      <c r="E19" t="str">
+        <v>NA</v>
+      </c>
+      <c r="F19">
+        <v>3</v>
+      </c>
+      <c r="G19" t="str">
+        <v>001</v>
+      </c>
+      <c r="H19" t="str">
+        <v>Anderson, Jim</v>
+      </c>
+      <c r="I19" t="str">
+        <v>S2 2019</v>
+      </c>
+      <c r="J19" t="str">
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>COMP</v>
+      </c>
+      <c r="B20">
+        <v>766</v>
+      </c>
+      <c r="C20">
+        <v>16184</v>
+      </c>
+      <c r="D20" t="str">
+        <v>Visual Solid Shape</v>
+      </c>
+      <c r="E20" t="str">
+        <v>NA</v>
+      </c>
+      <c r="F20">
+        <v>3</v>
+      </c>
+      <c r="G20" t="str">
+        <v>001</v>
+      </c>
+      <c r="H20" t="str">
+        <v>Pizer, Steve</v>
+      </c>
+      <c r="I20" t="str">
+        <v>S2 2019</v>
+      </c>
+      <c r="J20" t="str">
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>COMP</v>
+      </c>
+      <c r="B21">
+        <v>781</v>
+      </c>
+      <c r="C21">
+        <v>6831</v>
+      </c>
+      <c r="D21" t="str">
+        <v>Robotics</v>
+      </c>
+      <c r="E21" t="str">
+        <v>NA</v>
+      </c>
+      <c r="F21">
+        <v>3</v>
+      </c>
+      <c r="G21" t="str">
+        <v>001</v>
+      </c>
+      <c r="H21" t="str">
+        <v>Alterovitz, Ron</v>
+      </c>
+      <c r="I21" t="str">
+        <v>S2 2019</v>
+      </c>
+      <c r="J21" t="str">
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>COMP</v>
+      </c>
+      <c r="B22">
+        <v>790</v>
+      </c>
+      <c r="C22">
+        <v>5892</v>
+      </c>
+      <c r="D22" t="str">
+        <v>Special Topics</v>
+      </c>
+      <c r="E22" t="str">
+        <v>NA</v>
+      </c>
+      <c r="F22">
+        <v>3</v>
+      </c>
+      <c r="G22" t="str">
+        <v>084</v>
+      </c>
+      <c r="H22" t="str">
+        <v>Singh, Montek</v>
+      </c>
+      <c r="I22" t="str">
+        <v>S2 2019</v>
+      </c>
+      <c r="J22" t="str">
+        <v>Computational Photography</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>COMP</v>
+      </c>
+      <c r="B23">
+        <v>790</v>
+      </c>
+      <c r="C23">
+        <v>5956</v>
+      </c>
+      <c r="D23" t="str">
+        <v>Special Topics</v>
+      </c>
+      <c r="E23" t="str">
+        <v>NA</v>
+      </c>
+      <c r="F23">
+        <v>3</v>
+      </c>
+      <c r="G23" t="str">
+        <v>139</v>
+      </c>
+      <c r="H23" t="str">
+        <v>Bansal, Mohit</v>
+      </c>
+      <c r="I23" t="str">
+        <v>S2 2019</v>
+      </c>
+      <c r="J23" t="str">
+        <v>Advanced Topics in NLP</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>COMP</v>
+      </c>
+      <c r="B24">
+        <v>790</v>
+      </c>
+      <c r="C24">
+        <v>5767</v>
+      </c>
+      <c r="D24" t="str">
+        <v>Special Topics</v>
+      </c>
+      <c r="E24" t="str">
+        <v>NA</v>
+      </c>
+      <c r="F24">
+        <v>3</v>
+      </c>
+      <c r="G24" t="str">
+        <v>132</v>
+      </c>
+      <c r="H24" t="str">
+        <v>Sturton, Cynthia</v>
+      </c>
+      <c r="I24" t="str">
+        <v>S2 2019</v>
+      </c>
+      <c r="J24" t="str">
+        <v>Hardware Security</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>COMP</v>
+      </c>
+      <c r="B25">
+        <v>790</v>
+      </c>
+      <c r="C25">
+        <v>5894</v>
+      </c>
+      <c r="D25" t="str">
+        <v>Special Topics</v>
+      </c>
+      <c r="E25" t="str">
+        <v>NA</v>
+      </c>
+      <c r="F25">
+        <v>3</v>
+      </c>
+      <c r="G25" t="str">
+        <v>142</v>
+      </c>
+      <c r="H25" t="str">
+        <v>Oliva, Junier</v>
+      </c>
+      <c r="I25" t="str">
+        <v>S2 2019</v>
+      </c>
+      <c r="J25" t="str">
+        <v>Generative Methods in Machine Learning</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>COMP</v>
+      </c>
+      <c r="B26">
+        <v>790</v>
+      </c>
+      <c r="C26">
+        <v>12854</v>
+      </c>
+      <c r="D26" t="str">
+        <v>Special Topics</v>
+      </c>
+      <c r="E26" t="str">
+        <v>NA</v>
+      </c>
+      <c r="F26">
+        <v>3</v>
+      </c>
+      <c r="G26" t="str">
+        <v>144</v>
+      </c>
+      <c r="H26" t="str">
+        <v>Duggirala, Sridhar</v>
+      </c>
+      <c r="I26" t="str">
+        <v>S2 2019</v>
+      </c>
+      <c r="J26" t="str">
+        <v>Intro Formal Methods</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:J8"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:J26"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/courseTemp.xlsx
+++ b/data/courseTemp.xlsx
@@ -375,13 +375,78 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>department</v>
+      </c>
+      <c r="B1" t="str">
+        <v>number</v>
+      </c>
+      <c r="C1" t="str">
+        <v>univNumber</v>
+      </c>
+      <c r="D1" t="str">
+        <v>name</v>
+      </c>
+      <c r="E1" t="str">
+        <v>category</v>
+      </c>
+      <c r="F1" t="str">
+        <v>topic</v>
+      </c>
+      <c r="G1" t="str">
+        <v>hours</v>
+      </c>
+      <c r="H1" t="str">
+        <v>section</v>
+      </c>
+      <c r="I1" t="str">
+        <v>faculty</v>
+      </c>
+      <c r="J1" t="str">
+        <v>semester</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>COMP</v>
+      </c>
+      <c r="B2" t="str">
+        <v>101</v>
+      </c>
+      <c r="C2">
+        <v>11</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Fluency in Information Technology</v>
+      </c>
+      <c r="E2" t="str">
+        <v>Theory</v>
+      </c>
+      <c r="F2" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="H2" t="str">
+        <v>1</v>
+      </c>
+      <c r="I2" t="str">
+        <v>Ahalt, Stanley</v>
+      </c>
+      <c r="J2" t="str">
+        <v>FA 2018</v>
+      </c>
+    </row>
+  </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:J2"/>
   </ignoredErrors>
 </worksheet>
 </file>